--- a/Working/HW2_BoxModel_manual/starter_code/HW_02_visualization_homogenous.xlsx
+++ b/Working/HW2_BoxModel_manual/starter_code/HW_02_visualization_homogenous.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moral\HAS_582\homework-david-edu-morales\Working\HW2_BoxModel_manual\starter_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBDB727-8599-4F6C-B17A-96E70842E5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60AF4142-01F0-48B1-B4B6-5159CE7E0712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{E797DA87-9764-CF40-B10D-4CBD1F0C2290}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{E797DA87-9764-CF40-B10D-4CBD1F0C2290}"/>
   </bookViews>
   <sheets>
     <sheet name="bcf_1_edited" sheetId="3" r:id="rId1"/>
@@ -499,6 +499,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -508,17 +530,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -526,15 +546,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -546,17 +557,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -25600,7 +25600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B7FEA8-679C-6245-B574-9BBD7BB6F993}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="130" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="80" zoomScaleNormal="130" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
@@ -25622,7 +25622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F7A863-2B5E-40E2-8ABD-A9EB7624440F}">
   <dimension ref="A1:AC26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
@@ -25633,205 +25633,205 @@
   <sheetData>
     <row r="1" spans="2:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="9" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B3" s="13"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="10"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="20"/>
     </row>
     <row r="4" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B4" s="13"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="10"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="20"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B5" s="13"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="10"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="20"/>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B6" s="13"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="20" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="10"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="20"/>
     </row>
     <row r="7" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B7" s="13"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="10"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="20"/>
       <c r="AB7" s="31" t="s">
         <v>62</v>
       </c>
       <c r="AC7" s="31"/>
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B8" s="13"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="10"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="20"/>
       <c r="AB8">
         <v>0</v>
       </c>
@@ -25840,31 +25840,31 @@
       </c>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B9" s="13"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="10"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="20"/>
       <c r="AB9">
         <v>25</v>
       </c>
@@ -25873,481 +25873,481 @@
       </c>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B10" s="13"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="10"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="20"/>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B11" s="13"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="10"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="20"/>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B12" s="13"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="10"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="20"/>
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B13" s="13"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="10"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="20"/>
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B14" s="13"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="10"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="20"/>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B15" s="13"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="10"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="20"/>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B16" s="13"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="10"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="20"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B17" s="13"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="10"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="20"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B18" s="13"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="10"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="20"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="10"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="20"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B20" s="13"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="16"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="10"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="20"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B21" s="13"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="16"/>
-      <c r="X21" s="16"/>
-      <c r="Y21" s="16"/>
-      <c r="Z21" s="10"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="20"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B22" s="13"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16"/>
-      <c r="X22" s="16"/>
-      <c r="Y22" s="16"/>
-      <c r="Z22" s="10"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="20"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B23" s="13"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="16"/>
-      <c r="X23" s="16"/>
-      <c r="Y23" s="16"/>
-      <c r="Z23" s="10"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="20"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="27" t="s">
+      <c r="B24" s="17"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="23" t="s">
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="28" t="s">
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="Y24" s="16"/>
-      <c r="Z24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="20"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B25" s="13"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="16"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="16"/>
-      <c r="X25" s="16"/>
-      <c r="Y25" s="16"/>
-      <c r="Z25" s="10"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="20"/>
     </row>
     <row r="26" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="14"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="26"/>
-      <c r="V26" s="26"/>
-      <c r="W26" s="26"/>
-      <c r="X26" s="26"/>
-      <c r="Y26" s="26"/>
-      <c r="Z26" s="11"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="B2:B26"/>
     <mergeCell ref="Z2:Z26"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="L24:P24"/>
-    <mergeCell ref="AB7:AC7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
